--- a/Currency_List.xlsx
+++ b/Currency_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Desktop\CURSOS-PROYECTOS\Proyectos\2. SNP - Servicio de Notificacion de Pagos\SNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C8CE3A-125B-4FA4-A740-7DE419345B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1FE14-DE0A-4E72-B2E5-738B5A56AD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62E78142-DB99-4329-AA1F-294CEDCE1514}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62E78142-DB99-4329-AA1F-294CEDCE1514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="534">
   <si>
     <t>Country/Currency</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>currency = 'ZWD'</t>
+  </si>
+  <si>
+    <t>"AUD","GBP","JPY","CHF","USD","AFN","ALL","DZD","AOA","ARS","AMD","AWG","AUD","ATS","BEF","AZN","BSD","BHD","BDT","BBD","BYR","BZD","BMD","BTN","BOB","BAM","BWP","BRL","GBP","BND","BGN","BIF","XOF","XAF","XPF","KHR","CAD","CVE","KYD","CLP","CNY","COP","KMF","CDF","CRC","HRK","CUC","CUP","CYP","CZK","DKK","DJF","DOP","XCD","EGP","SVC","EEK","ETB","EUR","FKP","FIM","FJD","GMD","GEL","DMK","GHS","GIP","GRD","GTQ","GNF","GYD","HTG","HNL","HKD","HUF","ISK","INR","IDR","IRR","IQD","IED","ILS","ITL","JMD","JPY","JOD","KZT","KES","KWD","KGS","LAK","LVL","LBP","LSL","LRD","LYD","LTL","LUF","MOP","MKD","MGA","MWK","MYR","MVR","MTL","MRO","MUR","MDL","MNT","MAD","MZN","MMK","ANG","NAD","NPR","NLG","NZD","NIO","NGN","KPW","NOK","OMR","PKR","PAB","PGK","PYG","PEN","PHP","PLN","PTE","QAR","RON","RUB","RWF","WST","STD","SAR","RSD","SCR","SLL","SGD","SKK","SIT","SBD","SOS","ZAR","KRW","ESP","LKR","SHP","SDG","SRD","SZL","SEK","CHF","SYP","TWD","TZS","THB","TOP","TTD","TND","TRY","TMM","UGX","UAH","UYU","AED","VUV","VEB","VND","YER","ZMK","ZWD"</t>
   </si>
 </sst>
 </file>
@@ -1989,23 +1992,27 @@
   <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2013,17 +2020,21 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT("currency = '",E2,"' OR ")</f>
-        <v xml:space="preserve">currency = 'AUD' OR </v>
+        <f>_xlfn.CONCAT(CHAR(34),E2,CHAR(34),",")</f>
+        <v>"MXN",</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(F5:F178)</f>
+        <v>"AUD","GBP","JPY","CHF","USD","AFN","ALL","DZD","AOA","ARS","AMD","AWG","AUD","ATS","BEF","AZN","BSD","BHD","BDT","BBD","BYR","BZD","BMD","BTN","BOB","BAM","BWP","BRL","GBP","BND","BGN","BIF","XOF","XAF","XPF","KHR","CAD","CVE","KYD","CLP","CNY","COP","KMF","CDF","CRC","HRK","CUC","CUP","CYP","CZK","DKK","DJF","DOP","XCD","EGP","SVC","EEK","ETB","EUR","FKP","FIM","FJD","GMD","GEL","DMK","GHS","GIP","GRD","GTQ","GNF","GYD","HTG","HNL","HKD","HUF","ISK","INR","IDR","IRR","IQD","IED","ILS","ITL","JMD","JPY","JOD","KZT","KES","KWD","KGS","LAK","LVL","LBP","LSL","LRD","LYD","LTL","LUF","MOP","MKD","MGA","MWK","MYR","MVR","MTL","MRO","MUR","MDL","MNT","MAD","MZN","MMK","ANG","NAD","NPR","NLG","NZD","NIO","NGN","KPW","NOK","OMR","PKR","PAB","PGK","PYG","PEN","PHP","PLN","PTE","QAR","RON","RUB","RWF","WST","STD","SAR","RSD","SCR","SLL","SGD","SKK","SIT","SBD","SOS","ZAR","KRW","ESP","LKR","SHP","SDG","SRD","SZL","SEK","CHF","SYP","TWD","TZS","THB","TOP","TTD","TND","TRY","TMM","UGX","UAH","UYU","AED","VUV","VEB","VND","YER","ZMK","ZWD"</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2031,17 +2042,17 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT("currency = '",E3,"' OR ")</f>
-        <v xml:space="preserve">currency = 'GBP' OR </v>
+        <f>_xlfn.CONCAT(CHAR(34),E3,CHAR(34),",")</f>
+        <v>"USD",</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2052,14 +2063,14 @@
         <v>9</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'EUR' OR </v>
+        <f>_xlfn.CONCAT(CHAR(34),E4,CHAR(34),",")</f>
+        <v>"EUR",</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2067,17 +2078,17 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'JPY' OR </v>
+        <f>_xlfn.CONCAT(CHAR(34),E5,CHAR(34),",")</f>
+        <v>"AUD",</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2085,17 +2096,17 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CHF' OR </v>
+        <f t="shared" ref="F6:F68" si="0">_xlfn.CONCAT(CHAR(34),E6,CHAR(34),",")</f>
+        <v>"GBP",</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2103,17 +2114,17 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'USD' OR </v>
+        <v>"JPY",</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2121,17 +2132,17 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AFN' OR </v>
+        <v>"CHF",</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2139,17 +2150,17 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'ALL' OR </v>
+        <v>"USD",</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2157,17 +2168,17 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'DZD' OR </v>
+        <v>"AFN",</v>
       </c>
       <c r="I10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2175,17 +2186,17 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AOA' OR </v>
+        <v>"ALL",</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2193,17 +2204,17 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'ARS' OR </v>
+        <v>"DZD",</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2211,17 +2222,17 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AMD' OR </v>
+        <v>"AOA",</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2229,17 +2240,17 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AWG' OR </v>
+        <v>"ARS",</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2247,17 +2258,17 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AUD' OR </v>
+        <v>"AMD",</v>
       </c>
       <c r="I15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2265,17 +2276,17 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'ATS' OR </v>
+        <v>"AWG",</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2283,17 +2294,17 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BEF' OR </v>
+        <v>"AUD",</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2301,17 +2312,17 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'AZN' OR </v>
+        <v>"ATS",</v>
       </c>
       <c r="I18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2319,17 +2330,17 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BSD' OR </v>
+        <v>"BEF",</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2337,17 +2348,17 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BHD' OR </v>
+        <v>"AZN",</v>
       </c>
       <c r="I20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2355,17 +2366,17 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BDT' OR </v>
+        <v>"BSD",</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2373,17 +2384,17 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BBD' OR </v>
+        <v>"BHD",</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2391,17 +2402,17 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BYR' OR </v>
+        <v>"BDT",</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2409,17 +2420,17 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BZD' OR </v>
+        <v>"BBD",</v>
       </c>
       <c r="I24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2427,17 +2438,17 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BMD' OR </v>
+        <v>"BYR",</v>
       </c>
       <c r="I25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2445,17 +2456,17 @@
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BTN' OR </v>
+        <v>"BZD",</v>
       </c>
       <c r="I26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2463,17 +2474,17 @@
         <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BOB' OR </v>
+        <v>"BMD",</v>
       </c>
       <c r="I27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2481,17 +2492,17 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BAM' OR </v>
+        <v>"BTN",</v>
       </c>
       <c r="I28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2499,17 +2510,17 @@
         <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BWP' OR </v>
+        <v>"BOB",</v>
       </c>
       <c r="I29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2517,17 +2528,17 @@
         <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BRL' OR </v>
+        <v>"BAM",</v>
       </c>
       <c r="I30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -2535,17 +2546,17 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'GBP' OR </v>
+        <v>"BWP",</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2553,17 +2564,17 @@
         <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BND' OR </v>
+        <v>"BRL",</v>
       </c>
       <c r="I32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2571,17 +2582,17 @@
         <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BGN' OR </v>
+        <v>"GBP",</v>
       </c>
       <c r="I33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2589,17 +2600,17 @@
         <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'BIF' OR </v>
+        <v>"BND",</v>
       </c>
       <c r="I34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2607,17 +2618,17 @@
         <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'XOF' OR </v>
+        <v>"BGN",</v>
       </c>
       <c r="I35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2625,17 +2636,17 @@
         <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'XAF' OR </v>
+        <v>"BIF",</v>
       </c>
       <c r="I36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2643,17 +2654,17 @@
         <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'XPF' OR </v>
+        <v>"XOF",</v>
       </c>
       <c r="I37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2661,17 +2672,17 @@
         <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'KHR' OR </v>
+        <v>"XAF",</v>
       </c>
       <c r="I38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2679,17 +2690,17 @@
         <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CAD' OR </v>
+        <v>"XPF",</v>
       </c>
       <c r="I39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2697,17 +2708,17 @@
         <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CVE' OR </v>
+        <v>"KHR",</v>
       </c>
       <c r="I40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2715,17 +2726,17 @@
         <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'KYD' OR </v>
+        <v>"CAD",</v>
       </c>
       <c r="I41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -2733,17 +2744,17 @@
         <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CLP' OR </v>
+        <v>"CVE",</v>
       </c>
       <c r="I42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -2751,17 +2762,17 @@
         <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CNY' OR </v>
+        <v>"KYD",</v>
       </c>
       <c r="I43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -2769,17 +2780,17 @@
         <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'COP' OR </v>
+        <v>"CLP",</v>
       </c>
       <c r="I44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -2787,17 +2798,17 @@
         <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'KMF' OR </v>
+        <v>"CNY",</v>
       </c>
       <c r="I45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -2805,17 +2816,17 @@
         <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CDF' OR </v>
+        <v>"COP",</v>
       </c>
       <c r="I46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -2823,17 +2834,17 @@
         <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CRC' OR </v>
+        <v>"KMF",</v>
       </c>
       <c r="I47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -2841,17 +2852,17 @@
         <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'HRK' OR </v>
+        <v>"CDF",</v>
       </c>
       <c r="I48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2859,17 +2870,17 @@
         <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CUC' OR </v>
+        <v>"CRC",</v>
       </c>
       <c r="I49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -2877,17 +2888,17 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CUP' OR </v>
+        <v>"HRK",</v>
       </c>
       <c r="I50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -2895,17 +2906,17 @@
         <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CYP' OR </v>
+        <v>"CUC",</v>
       </c>
       <c r="I51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -2913,17 +2924,17 @@
         <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'CZK' OR </v>
+        <v>"CUP",</v>
       </c>
       <c r="I52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -2931,17 +2942,17 @@
         <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'DKK' OR </v>
+        <v>"CYP",</v>
       </c>
       <c r="I53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -2949,17 +2960,17 @@
         <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'DJF' OR </v>
+        <v>"CZK",</v>
       </c>
       <c r="I54" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -2967,17 +2978,17 @@
         <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'DOP' OR </v>
+        <v>"DKK",</v>
       </c>
       <c r="I55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -2985,17 +2996,17 @@
         <v>162</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'XCD' OR </v>
+        <v>"DJF",</v>
       </c>
       <c r="I56" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -3003,17 +3014,17 @@
         <v>165</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'EGP' OR </v>
+        <v>"DOP",</v>
       </c>
       <c r="I57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -3021,17 +3032,17 @@
         <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'SVC' OR </v>
+        <v>"XCD",</v>
       </c>
       <c r="I58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -3039,17 +3050,17 @@
         <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'EEK' OR </v>
+        <v>"EGP",</v>
       </c>
       <c r="I59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -3057,17 +3068,17 @@
         <v>175</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'ETB' OR </v>
+        <v>"SVC",</v>
       </c>
       <c r="I60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3075,17 +3086,17 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'EUR' OR </v>
+        <v>"EEK",</v>
       </c>
       <c r="I61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -3093,17 +3104,17 @@
         <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'FKP' OR </v>
+        <v>"ETB",</v>
       </c>
       <c r="I62" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -3111,17 +3122,17 @@
         <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'FIM' OR </v>
+        <v>"EUR",</v>
       </c>
       <c r="I63" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>184</v>
       </c>
@@ -3129,17 +3140,17 @@
         <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'FJD' OR </v>
+        <v>"FKP",</v>
       </c>
       <c r="I64" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -3147,17 +3158,17 @@
         <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'GMD' OR </v>
+        <v>"FIM",</v>
       </c>
       <c r="I65" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -3165,17 +3176,17 @@
         <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">currency = 'GEL' OR </v>
+        <v>"FJD",</v>
       </c>
       <c r="I66" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -3183,17 +3194,17 @@
         <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="1">_xlfn.CONCAT("currency = '",E67,"' OR ")</f>
-        <v xml:space="preserve">currency = 'DMK' OR </v>
+        <f t="shared" si="0"/>
+        <v>"GMD",</v>
       </c>
       <c r="I67" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -3201,17 +3212,17 @@
         <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GHS' OR </v>
+        <f t="shared" si="0"/>
+        <v>"GEL",</v>
       </c>
       <c r="I68" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -3219,17 +3230,17 @@
         <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GIP' OR </v>
+        <f t="shared" ref="F69:F131" si="1">_xlfn.CONCAT(CHAR(34),E69,CHAR(34),",")</f>
+        <v>"DMK",</v>
       </c>
       <c r="I69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3237,17 +3248,17 @@
         <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GRD' OR </v>
+        <v>"GHS",</v>
       </c>
       <c r="I70" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3255,17 +3266,17 @@
         <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GTQ' OR </v>
+        <v>"GIP",</v>
       </c>
       <c r="I71" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -3273,17 +3284,17 @@
         <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GNF' OR </v>
+        <v>"GRD",</v>
       </c>
       <c r="I72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -3291,17 +3302,17 @@
         <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'GYD' OR </v>
+        <v>"GTQ",</v>
       </c>
       <c r="I73" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -3309,17 +3320,17 @@
         <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'HTG' OR </v>
+        <v>"GNF",</v>
       </c>
       <c r="I74" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -3327,17 +3338,17 @@
         <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'HNL' OR </v>
+        <v>"GYD",</v>
       </c>
       <c r="I75" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -3345,17 +3356,17 @@
         <v>223</v>
       </c>
       <c r="E76" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'HKD' OR </v>
+        <v>"HTG",</v>
       </c>
       <c r="I76" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -3363,17 +3374,17 @@
         <v>226</v>
       </c>
       <c r="E77" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'HUF' OR </v>
+        <v>"HNL",</v>
       </c>
       <c r="I77" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>228</v>
       </c>
@@ -3381,17 +3392,17 @@
         <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'ISK' OR </v>
+        <v>"HKD",</v>
       </c>
       <c r="I78" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -3399,17 +3410,17 @@
         <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'INR' OR </v>
+        <v>"HUF",</v>
       </c>
       <c r="I79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -3417,17 +3428,17 @@
         <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'IDR' OR </v>
+        <v>"ISK",</v>
       </c>
       <c r="I80" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -3435,17 +3446,17 @@
         <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'IRR' OR </v>
+        <v>"INR",</v>
       </c>
       <c r="I81" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -3453,17 +3464,17 @@
         <v>241</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'IQD' OR </v>
+        <v>"IDR",</v>
       </c>
       <c r="I82" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -3471,17 +3482,17 @@
         <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'IED' OR </v>
+        <v>"IRR",</v>
       </c>
       <c r="I83" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -3489,17 +3500,17 @@
         <v>248</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'ILS' OR </v>
+        <v>"IQD",</v>
       </c>
       <c r="I84" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -3507,17 +3518,17 @@
         <v>251</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'ITL' OR </v>
+        <v>"IED",</v>
       </c>
       <c r="I85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -3525,17 +3536,17 @@
         <v>255</v>
       </c>
       <c r="E86" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'JMD' OR </v>
+        <v>"ILS",</v>
       </c>
       <c r="I86" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -3543,17 +3554,17 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'JPY' OR </v>
+        <v>"ITL",</v>
       </c>
       <c r="I87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>257</v>
       </c>
@@ -3561,17 +3572,17 @@
         <v>258</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'JOD' OR </v>
+        <v>"JMD",</v>
       </c>
       <c r="I88" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>260</v>
       </c>
@@ -3579,17 +3590,17 @@
         <v>261</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'KZT' OR </v>
+        <v>"JPY",</v>
       </c>
       <c r="I89" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>263</v>
       </c>
@@ -3597,17 +3608,17 @@
         <v>264</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'KES' OR </v>
+        <v>"JOD",</v>
       </c>
       <c r="I90" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>266</v>
       </c>
@@ -3615,17 +3626,17 @@
         <v>267</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'KWD' OR </v>
+        <v>"KZT",</v>
       </c>
       <c r="I91" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>269</v>
       </c>
@@ -3633,17 +3644,17 @@
         <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'KGS' OR </v>
+        <v>"KES",</v>
       </c>
       <c r="I92" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>272</v>
       </c>
@@ -3651,17 +3662,17 @@
         <v>273</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LAK' OR </v>
+        <v>"KWD",</v>
       </c>
       <c r="I93" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>275</v>
       </c>
@@ -3669,17 +3680,17 @@
         <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LVL' OR </v>
+        <v>"KGS",</v>
       </c>
       <c r="I94" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -3687,17 +3698,17 @@
         <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LBP' OR </v>
+        <v>"LAK",</v>
       </c>
       <c r="I95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -3705,17 +3716,17 @@
         <v>283</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LSL' OR </v>
+        <v>"LVL",</v>
       </c>
       <c r="I96" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -3723,17 +3734,17 @@
         <v>286</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LRD' OR </v>
+        <v>"LBP",</v>
       </c>
       <c r="I97" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -3741,17 +3752,17 @@
         <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LYD' OR </v>
+        <v>"LSL",</v>
       </c>
       <c r="I98" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -3759,17 +3770,17 @@
         <v>292</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LTL' OR </v>
+        <v>"LRD",</v>
       </c>
       <c r="I99" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>295</v>
       </c>
@@ -3777,17 +3788,17 @@
         <v>296</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'LUF' OR </v>
+        <v>"LYD",</v>
       </c>
       <c r="I100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>299</v>
       </c>
@@ -3795,17 +3806,17 @@
         <v>300</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MOP' OR </v>
+        <v>"LTL",</v>
       </c>
       <c r="I101" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -3813,17 +3824,17 @@
         <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MKD' OR </v>
+        <v>"LUF",</v>
       </c>
       <c r="I102" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>305</v>
       </c>
@@ -3831,17 +3842,17 @@
         <v>306</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MGA' OR </v>
+        <v>"MOP",</v>
       </c>
       <c r="I103" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -3849,17 +3860,17 @@
         <v>309</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MWK' OR </v>
+        <v>"MKD",</v>
       </c>
       <c r="I104" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -3867,17 +3878,17 @@
         <v>312</v>
       </c>
       <c r="E105" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MYR' OR </v>
+        <v>"MGA",</v>
       </c>
       <c r="I105" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -3885,17 +3896,17 @@
         <v>315</v>
       </c>
       <c r="E106" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MVR' OR </v>
+        <v>"MWK",</v>
       </c>
       <c r="I106" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -3903,17 +3914,17 @@
         <v>318</v>
       </c>
       <c r="E107" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MTL' OR </v>
+        <v>"MYR",</v>
       </c>
       <c r="I107" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>321</v>
       </c>
@@ -3921,17 +3932,17 @@
         <v>322</v>
       </c>
       <c r="E108" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MRO' OR </v>
+        <v>"MVR",</v>
       </c>
       <c r="I108" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>324</v>
       </c>
@@ -3939,17 +3950,17 @@
         <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MUR' OR </v>
+        <v>"MTL",</v>
       </c>
       <c r="I109" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -3957,17 +3968,17 @@
         <v>328</v>
       </c>
       <c r="E110" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MXN' OR </v>
+        <v>"MRO",</v>
       </c>
       <c r="I110" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -3975,17 +3986,17 @@
         <v>331</v>
       </c>
       <c r="E111" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MDL' OR </v>
+        <v>"MUR",</v>
       </c>
       <c r="I111" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -3993,17 +4004,17 @@
         <v>334</v>
       </c>
       <c r="E112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MNT' OR </v>
+        <v>"MDL",</v>
       </c>
       <c r="I112" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -4011,17 +4022,17 @@
         <v>337</v>
       </c>
       <c r="E113" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MAD' OR </v>
+        <v>"MNT",</v>
       </c>
       <c r="I113" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -4029,17 +4040,17 @@
         <v>340</v>
       </c>
       <c r="E114" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MZN' OR </v>
+        <v>"MAD",</v>
       </c>
       <c r="I114" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -4047,17 +4058,17 @@
         <v>343</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'MMK' OR </v>
+        <v>"MZN",</v>
       </c>
       <c r="I115" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -4065,17 +4076,17 @@
         <v>346</v>
       </c>
       <c r="E116" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'ANG' OR </v>
+        <v>"MMK",</v>
       </c>
       <c r="I116" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -4083,17 +4094,17 @@
         <v>349</v>
       </c>
       <c r="E117" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NAD' OR </v>
+        <v>"ANG",</v>
       </c>
       <c r="I117" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -4101,17 +4112,17 @@
         <v>352</v>
       </c>
       <c r="E118" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NPR' OR </v>
+        <v>"NAD",</v>
       </c>
       <c r="I118" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>354</v>
       </c>
@@ -4119,17 +4130,17 @@
         <v>355</v>
       </c>
       <c r="E119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NLG' OR </v>
+        <v>"NPR",</v>
       </c>
       <c r="I119" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>358</v>
       </c>
@@ -4137,17 +4148,17 @@
         <v>359</v>
       </c>
       <c r="E120" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NZD' OR </v>
+        <v>"NLG",</v>
       </c>
       <c r="I120" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>361</v>
       </c>
@@ -4155,17 +4166,17 @@
         <v>362</v>
       </c>
       <c r="E121" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NIO' OR </v>
+        <v>"NZD",</v>
       </c>
       <c r="I121" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>364</v>
       </c>
@@ -4173,17 +4184,17 @@
         <v>365</v>
       </c>
       <c r="E122" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NGN' OR </v>
+        <v>"NIO",</v>
       </c>
       <c r="I122" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>367</v>
       </c>
@@ -4191,17 +4202,17 @@
         <v>368</v>
       </c>
       <c r="E123" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'KPW' OR </v>
+        <v>"NGN",</v>
       </c>
       <c r="I123" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>370</v>
       </c>
@@ -4209,17 +4220,17 @@
         <v>371</v>
       </c>
       <c r="E124" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'NOK' OR </v>
+        <v>"KPW",</v>
       </c>
       <c r="I124" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>373</v>
       </c>
@@ -4227,17 +4238,17 @@
         <v>374</v>
       </c>
       <c r="E125" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'OMR' OR </v>
+        <v>"NOK",</v>
       </c>
       <c r="I125" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -4245,17 +4256,17 @@
         <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'PKR' OR </v>
+        <v>"OMR",</v>
       </c>
       <c r="I126" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>379</v>
       </c>
@@ -4263,17 +4274,17 @@
         <v>380</v>
       </c>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'PAB' OR </v>
+        <v>"PKR",</v>
       </c>
       <c r="I127" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>382</v>
       </c>
@@ -4281,17 +4292,17 @@
         <v>383</v>
       </c>
       <c r="E128" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'PGK' OR </v>
+        <v>"PAB",</v>
       </c>
       <c r="I128" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>385</v>
       </c>
@@ -4299,17 +4310,17 @@
         <v>386</v>
       </c>
       <c r="E129" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'PYG' OR </v>
+        <v>"PGK",</v>
       </c>
       <c r="I129" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>388</v>
       </c>
@@ -4317,17 +4328,17 @@
         <v>389</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">currency = 'PEN' OR </v>
+        <v>"PYG",</v>
       </c>
       <c r="I130" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>391</v>
       </c>
@@ -4335,17 +4346,17 @@
         <v>392</v>
       </c>
       <c r="E131" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F177" si="2">_xlfn.CONCAT("currency = '",E131,"' OR ")</f>
-        <v xml:space="preserve">currency = 'PHP' OR </v>
+        <f t="shared" si="1"/>
+        <v>"PEN",</v>
       </c>
       <c r="I131" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>394</v>
       </c>
@@ -4353,17 +4364,17 @@
         <v>395</v>
       </c>
       <c r="E132" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'PLN' OR </v>
+        <f t="shared" ref="F132:F177" si="2">_xlfn.CONCAT(CHAR(34),E132,CHAR(34),",")</f>
+        <v>"PHP",</v>
       </c>
       <c r="I132" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>397</v>
       </c>
@@ -4371,17 +4382,17 @@
         <v>398</v>
       </c>
       <c r="E133" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'PTE' OR </v>
+        <v>"PLN",</v>
       </c>
       <c r="I133" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>401</v>
       </c>
@@ -4389,17 +4400,17 @@
         <v>402</v>
       </c>
       <c r="E134" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'QAR' OR </v>
+        <v>"PTE",</v>
       </c>
       <c r="I134" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -4407,17 +4418,17 @@
         <v>405</v>
       </c>
       <c r="E135" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'RON' OR </v>
+        <v>"QAR",</v>
       </c>
       <c r="I135" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>407</v>
       </c>
@@ -4425,17 +4436,17 @@
         <v>408</v>
       </c>
       <c r="E136" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'RUB' OR </v>
+        <v>"RON",</v>
       </c>
       <c r="I136" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -4443,17 +4454,17 @@
         <v>411</v>
       </c>
       <c r="E137" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'RWF' OR </v>
+        <v>"RUB",</v>
       </c>
       <c r="I137" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>413</v>
       </c>
@@ -4461,17 +4472,17 @@
         <v>414</v>
       </c>
       <c r="E138" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'WST' OR </v>
+        <v>"RWF",</v>
       </c>
       <c r="I138" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>416</v>
       </c>
@@ -4479,17 +4490,17 @@
         <v>417</v>
       </c>
       <c r="E139" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'STD' OR </v>
+        <v>"WST",</v>
       </c>
       <c r="I139" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -4497,17 +4508,17 @@
         <v>420</v>
       </c>
       <c r="E140" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SAR' OR </v>
+        <v>"STD",</v>
       </c>
       <c r="I140" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>422</v>
       </c>
@@ -4515,17 +4526,17 @@
         <v>423</v>
       </c>
       <c r="E141" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'RSD' OR </v>
+        <v>"SAR",</v>
       </c>
       <c r="I141" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>425</v>
       </c>
@@ -4533,17 +4544,17 @@
         <v>426</v>
       </c>
       <c r="E142" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SCR' OR </v>
+        <v>"RSD",</v>
       </c>
       <c r="I142" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -4551,17 +4562,17 @@
         <v>429</v>
       </c>
       <c r="E143" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SLL' OR </v>
+        <v>"SCR",</v>
       </c>
       <c r="I143" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -4569,17 +4580,17 @@
         <v>432</v>
       </c>
       <c r="E144" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SGD' OR </v>
+        <v>"SLL",</v>
       </c>
       <c r="I144" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>434</v>
       </c>
@@ -4587,17 +4598,17 @@
         <v>435</v>
       </c>
       <c r="E145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SKK' OR </v>
+        <v>"SGD",</v>
       </c>
       <c r="I145" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>438</v>
       </c>
@@ -4605,17 +4616,17 @@
         <v>439</v>
       </c>
       <c r="E146" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SIT' OR </v>
+        <v>"SKK",</v>
       </c>
       <c r="I146" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -4623,17 +4634,17 @@
         <v>443</v>
       </c>
       <c r="E147" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SBD' OR </v>
+        <v>"SIT",</v>
       </c>
       <c r="I147" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>445</v>
       </c>
@@ -4641,17 +4652,17 @@
         <v>446</v>
       </c>
       <c r="E148" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SOS' OR </v>
+        <v>"SBD",</v>
       </c>
       <c r="I148" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -4659,17 +4670,17 @@
         <v>449</v>
       </c>
       <c r="E149" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'ZAR' OR </v>
+        <v>"SOS",</v>
       </c>
       <c r="I149" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>451</v>
       </c>
@@ -4677,17 +4688,17 @@
         <v>452</v>
       </c>
       <c r="E150" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'KRW' OR </v>
+        <v>"ZAR",</v>
       </c>
       <c r="I150" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>454</v>
       </c>
@@ -4695,17 +4706,17 @@
         <v>455</v>
       </c>
       <c r="E151" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'ESP' OR </v>
+        <v>"KRW",</v>
       </c>
       <c r="I151" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>458</v>
       </c>
@@ -4713,17 +4724,17 @@
         <v>459</v>
       </c>
       <c r="E152" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'LKR' OR </v>
+        <v>"ESP",</v>
       </c>
       <c r="I152" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>461</v>
       </c>
@@ -4731,17 +4742,17 @@
         <v>462</v>
       </c>
       <c r="E153" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SHP' OR </v>
+        <v>"LKR",</v>
       </c>
       <c r="I153" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -4749,17 +4760,17 @@
         <v>465</v>
       </c>
       <c r="E154" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SDG' OR </v>
+        <v>"SHP",</v>
       </c>
       <c r="I154" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>467</v>
       </c>
@@ -4767,17 +4778,17 @@
         <v>468</v>
       </c>
       <c r="E155" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SRD' OR </v>
+        <v>"SDG",</v>
       </c>
       <c r="I155" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>470</v>
       </c>
@@ -4785,17 +4796,17 @@
         <v>471</v>
       </c>
       <c r="E156" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SZL' OR </v>
+        <v>"SRD",</v>
       </c>
       <c r="I156" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>473</v>
       </c>
@@ -4803,17 +4814,17 @@
         <v>474</v>
       </c>
       <c r="E157" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SEK' OR </v>
+        <v>"SZL",</v>
       </c>
       <c r="I157" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -4821,17 +4832,17 @@
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'CHF' OR </v>
+        <v>"SEK",</v>
       </c>
       <c r="I158" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4839,17 +4850,17 @@
         <v>477</v>
       </c>
       <c r="E159" t="s">
-        <v>477</v>
+        <v>15</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'SYP' OR </v>
+        <v>"CHF",</v>
       </c>
       <c r="I159" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4857,17 +4868,17 @@
         <v>480</v>
       </c>
       <c r="E160" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TWD' OR </v>
+        <v>"SYP",</v>
       </c>
       <c r="I160" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4875,17 +4886,17 @@
         <v>483</v>
       </c>
       <c r="E161" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TZS' OR </v>
+        <v>"TWD",</v>
       </c>
       <c r="I161" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -4893,17 +4904,17 @@
         <v>486</v>
       </c>
       <c r="E162" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'THB' OR </v>
+        <v>"TZS",</v>
       </c>
       <c r="I162" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>488</v>
       </c>
@@ -4911,17 +4922,17 @@
         <v>489</v>
       </c>
       <c r="E163" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TOP' OR </v>
+        <v>"THB",</v>
       </c>
       <c r="I163" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>491</v>
       </c>
@@ -4929,17 +4940,17 @@
         <v>492</v>
       </c>
       <c r="E164" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TTD' OR </v>
+        <v>"TOP",</v>
       </c>
       <c r="I164" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>494</v>
       </c>
@@ -4947,17 +4958,17 @@
         <v>495</v>
       </c>
       <c r="E165" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TND' OR </v>
+        <v>"TTD",</v>
       </c>
       <c r="I165" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -4965,17 +4976,17 @@
         <v>498</v>
       </c>
       <c r="E166" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TRY' OR </v>
+        <v>"TND",</v>
       </c>
       <c r="I166" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -4983,17 +4994,17 @@
         <v>501</v>
       </c>
       <c r="E167" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'TMM' OR </v>
+        <v>"TRY",</v>
       </c>
       <c r="I167" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -5001,17 +5012,17 @@
         <v>18</v>
       </c>
       <c r="E168" t="s">
-        <v>18</v>
+        <v>501</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'USD' OR </v>
+        <v>"TMM",</v>
       </c>
       <c r="I168" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>503</v>
       </c>
@@ -5023,13 +5034,13 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'UGX' OR </v>
+        <v>"UGX",</v>
       </c>
       <c r="I169" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>506</v>
       </c>
@@ -5041,13 +5052,13 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'UAH' OR </v>
+        <v>"UAH",</v>
       </c>
       <c r="I170" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>509</v>
       </c>
@@ -5059,13 +5070,13 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'UYU' OR </v>
+        <v>"UYU",</v>
       </c>
       <c r="I171" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>512</v>
       </c>
@@ -5077,13 +5088,13 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'AED' OR </v>
+        <v>"AED",</v>
       </c>
       <c r="I172" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>515</v>
       </c>
@@ -5095,13 +5106,13 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'VUV' OR </v>
+        <v>"VUV",</v>
       </c>
       <c r="I173" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>518</v>
       </c>
@@ -5113,13 +5124,13 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'VEB' OR </v>
+        <v>"VEB",</v>
       </c>
       <c r="I174" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>521</v>
       </c>
@@ -5131,13 +5142,13 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'VND' OR </v>
+        <v>"VND",</v>
       </c>
       <c r="I175" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>524</v>
       </c>
@@ -5149,13 +5160,13 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'YER' OR </v>
+        <v>"YER",</v>
       </c>
       <c r="I176" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>527</v>
       </c>
@@ -5167,13 +5178,13 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">currency = 'ZMK' OR </v>
+        <v>"ZMK",</v>
       </c>
       <c r="I177" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>530</v>
       </c>
@@ -5184,8 +5195,8 @@
         <v>531</v>
       </c>
       <c r="F178" t="str">
-        <f>_xlfn.CONCAT("currency = '",E178,"'")</f>
-        <v>currency = 'ZWD'</v>
+        <f>_xlfn.CONCAT(CHAR(34),E178,CHAR(34))</f>
+        <v>"ZWD"</v>
       </c>
       <c r="I178" t="s">
         <v>532</v>
